--- a/biology/Zoologie/Asemesthes/Asemesthes.xlsx
+++ b/biology/Zoologie/Asemesthes/Asemesthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asemesthes est un genre d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asemesthes est un genre d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe et en Éthiopie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe et en Éthiopie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 17.5, 29/10/2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 17.5, 29/10/2016) :
 Asemesthes affinis Lessert, 1933
 Asemesthes albovittatus Purcell, 1908
 Asemesthes ales Tucker, 1923
@@ -598,7 +614,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1887 : Études arachnologiques. 20e Mémoire. XXVIII. Arachnides recueillis dans le sud de l'Afrique par M. le docteur Hans Schinz. Annales de la Société Entomologique de France, sér. 6, vol. 7, p. 369-384 (texte intégral).</t>
         </is>
